--- a/data/trans_orig/P25D_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P25D_2023-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>11707</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5439</v>
+        <v>5132</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>23800</v>
+        <v>23763</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02023632758843574</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.009401983576667052</v>
+        <v>0.008871161418816864</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04113818948705252</v>
+        <v>0.04107409307161597</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>22</v>
@@ -762,19 +762,19 @@
         <v>16118</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>10381</v>
+        <v>9606</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>28003</v>
+        <v>26948</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01965764692986301</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01266038189818579</v>
+        <v>0.01171504102883067</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03415161734361873</v>
+        <v>0.03286560697065205</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>30</v>
@@ -783,19 +783,19 @@
         <v>27826</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>17808</v>
+        <v>18014</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>42856</v>
+        <v>43697</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.01989703703394107</v>
+        <v>0.01989703703394106</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01273360581639</v>
+        <v>0.01288131698505873</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03064486104395119</v>
+        <v>0.0312458996716316</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>7920</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3600</v>
+        <v>3755</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>15658</v>
+        <v>15638</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01369049825700158</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.006223140036376451</v>
+        <v>0.006490672414208622</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02706520523411176</v>
+        <v>0.02702977421018338</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>11</v>
@@ -833,19 +833,19 @@
         <v>7064</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3356</v>
+        <v>3319</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>12253</v>
+        <v>12349</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.008614858301865397</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.004092928629863092</v>
+        <v>0.004048054271249145</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.01494395230318083</v>
+        <v>0.01506106091976614</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>19</v>
@@ -854,19 +854,19 @@
         <v>14984</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>9412</v>
+        <v>9643</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>23681</v>
+        <v>23872</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01071456210070951</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.006730130078821379</v>
+        <v>0.006895326491779764</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01693359631845677</v>
+        <v>0.01707024489342272</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>2901</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7867</v>
+        <v>8413</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.005013780813552925</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.001547076499445298</v>
+        <v>0.001539590801953621</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.01359793736148338</v>
+        <v>0.01454214577438582</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>0</v>
@@ -920,16 +920,16 @@
         <v>898</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>8546</v>
+        <v>9794</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.002074113749958917</v>
+        <v>0.002074113749958916</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.0006418717079401573</v>
+        <v>0.0006418542421988424</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.006110936035822671</v>
+        <v>0.007003639544242295</v>
       </c>
     </row>
     <row r="7">
@@ -946,19 +946,19 @@
         <v>5829</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1682</v>
+        <v>1776</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>15323</v>
+        <v>13375</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01007586789025825</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.002906560126388769</v>
+        <v>0.003070576684364532</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02648684940993212</v>
+        <v>0.02311943328066194</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>4357</v>
+        <v>3602</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0008820313244539095</v>
@@ -979,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.005314253735151802</v>
+        <v>0.004392453159038514</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>5</v>
@@ -988,19 +988,19 @@
         <v>6552</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2284</v>
+        <v>2209</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>15537</v>
+        <v>15110</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.00468536129541387</v>
+        <v>0.004685361295413869</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.001633454882870471</v>
+        <v>0.001579871685944791</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01111021918415816</v>
+        <v>0.01080436004849859</v>
       </c>
     </row>
     <row r="8">
@@ -1017,19 +1017,19 @@
         <v>5268</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1547</v>
+        <v>1403</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>13369</v>
+        <v>13391</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.009106489818949539</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.002674271780046225</v>
+        <v>0.002425683176691584</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02310803904040888</v>
+        <v>0.02314650218663462</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>2827</v>
+        <v>3087</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.001140446427343883</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.003447361932828964</v>
+        <v>0.00376482191136311</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>6</v>
@@ -1059,19 +1059,19 @@
         <v>6203</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2260</v>
+        <v>2474</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>15421</v>
+        <v>14421</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.004435859758264965</v>
+        <v>0.004435859758264963</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.001615971213483914</v>
+        <v>0.001769359968271394</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01102678374472861</v>
+        <v>0.01031221291360513</v>
       </c>
     </row>
     <row r="9">
@@ -1088,19 +1088,19 @@
         <v>544903</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>530879</v>
+        <v>531767</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>556282</v>
+        <v>556423</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.9418770356318021</v>
+        <v>0.9418770356318019</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.9176352286264929</v>
+        <v>0.9191712700433328</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.9615451606014178</v>
+        <v>0.9617901057045192</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>1388</v>
@@ -1109,19 +1109,19 @@
         <v>795116</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>784275</v>
+        <v>783122</v>
       </c>
       <c r="M9" s="5" t="n">
         <v>802761</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.9697050170164737</v>
+        <v>0.9697050170164738</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.9564835994195084</v>
+        <v>0.955076485396447</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.9790287621965323</v>
+        <v>0.9790283251347777</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>2052</v>
@@ -1130,19 +1130,19 @@
         <v>1340020</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1322968</v>
+        <v>1321396</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>1355207</v>
+        <v>1355118</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.9581930660617116</v>
+        <v>0.9581930660617115</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.9460004066546084</v>
+        <v>0.9448761040981031</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.9690532809869811</v>
+        <v>0.9689893244845824</v>
       </c>
     </row>
     <row r="10">
@@ -1234,19 +1234,19 @@
         <v>88409</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>68005</v>
+        <v>65527</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>115624</v>
+        <v>111749</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.03977056254618156</v>
+        <v>0.03977056254618155</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.03059186536096451</v>
+        <v>0.02947698206474747</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.05201324021131425</v>
+        <v>0.05026992341433159</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>133</v>
@@ -1255,19 +1255,19 @@
         <v>87334</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>71362</v>
+        <v>69248</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>107894</v>
+        <v>106881</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.04030157172993407</v>
+        <v>0.04030157172993408</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.03293146032878023</v>
+        <v>0.03195571587817454</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.04978937426904697</v>
+        <v>0.04932204059450252</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>210</v>
@@ -1276,19 +1276,19 @@
         <v>175743</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>148738</v>
+        <v>150035</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>206182</v>
+        <v>205472</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.04003268169778725</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.03388115962193147</v>
+        <v>0.03417663236143947</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.04696647280648274</v>
+        <v>0.04680484976230082</v>
       </c>
     </row>
     <row r="12">
@@ -1305,19 +1305,19 @@
         <v>38726</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>26904</v>
+        <v>26480</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>55201</v>
+        <v>54088</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.01742062396369407</v>
+        <v>0.01742062396369408</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01210277710458648</v>
+        <v>0.01191198077427408</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.02483183568384168</v>
+        <v>0.02433118712299173</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>35</v>
@@ -1326,19 +1326,19 @@
         <v>26833</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>19153</v>
+        <v>18938</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>38353</v>
+        <v>39155</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01238267770908062</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.008838513251513072</v>
+        <v>0.008739394602492184</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.01769860778978755</v>
+        <v>0.01806867589286426</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>66</v>
@@ -1347,19 +1347,19 @@
         <v>65559</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>51020</v>
+        <v>51033</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>87571</v>
+        <v>83712</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01493377017942914</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01162190053981489</v>
+        <v>0.01162494006567176</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.01994783898974638</v>
+        <v>0.01906879483343035</v>
       </c>
     </row>
     <row r="13">
@@ -1376,19 +1376,19 @@
         <v>28257</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>16776</v>
+        <v>16765</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>45421</v>
+        <v>44625</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01271113905704592</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.007546728772068473</v>
+        <v>0.007541571076084548</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02043242936891714</v>
+        <v>0.02007461744592238</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>19</v>
@@ -1397,19 +1397,19 @@
         <v>17690</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>9929</v>
+        <v>10206</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>28574</v>
+        <v>26971</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.00816333017693141</v>
+        <v>0.008163330176931409</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.004581804079125338</v>
+        <v>0.004709736338414866</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01318579412136283</v>
+        <v>0.01244630479205247</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>37</v>
@@ -1418,19 +1418,19 @@
         <v>45947</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>31775</v>
+        <v>30937</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>66748</v>
+        <v>64782</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01046622909730396</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.007238150680012949</v>
+        <v>0.007047267385689345</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01520458791091976</v>
+        <v>0.01475670393483365</v>
       </c>
     </row>
     <row r="14">
@@ -1447,19 +1447,19 @@
         <v>35430</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>21130</v>
+        <v>22544</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>54741</v>
+        <v>54822</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01593807604923479</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.009505488258178308</v>
+        <v>0.01014115142959963</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02462511410215214</v>
+        <v>0.02466167793197805</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>20</v>
@@ -1468,19 +1468,19 @@
         <v>23580</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>14430</v>
+        <v>14365</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>38279</v>
+        <v>38973</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.01088161294190808</v>
+        <v>0.01088161294190809</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.006658926520686744</v>
+        <v>0.006628997639444607</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01766435318801076</v>
+        <v>0.01798460822993938</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>43</v>
@@ -1489,19 +1489,19 @@
         <v>59010</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>41488</v>
+        <v>41729</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>82770</v>
+        <v>80484</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01344208189250151</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.009450602588951447</v>
+        <v>0.00950545440801027</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01885428231104196</v>
+        <v>0.01833355715834513</v>
       </c>
     </row>
     <row r="15">
@@ -1518,19 +1518,19 @@
         <v>24125</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>12376</v>
+        <v>11598</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>46374</v>
+        <v>45224</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.01085234436798251</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.005567463483864019</v>
+        <v>0.005217287381850471</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.02086120878387831</v>
+        <v>0.02034395001247579</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>11</v>
@@ -1539,19 +1539,19 @@
         <v>12338</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>5869</v>
+        <v>5941</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>25889</v>
+        <v>23100</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.005693429699433571</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.002708215841021578</v>
+        <v>0.002741449301670775</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.01194709891917987</v>
+        <v>0.01066012005484465</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>21</v>
@@ -1560,19 +1560,19 @@
         <v>36462</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>22130</v>
+        <v>22186</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>60462</v>
+        <v>59400</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.008305777608872614</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.005040940362590922</v>
+        <v>0.005053796779294829</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.0137728304865404</v>
+        <v>0.01353074868218192</v>
       </c>
     </row>
     <row r="16">
@@ -1589,19 +1589,19 @@
         <v>2008031</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1969364</v>
+        <v>1973086</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2037404</v>
+        <v>2041371</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.9033072540158611</v>
+        <v>0.9033072540158612</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8859130232987301</v>
+        <v>0.8875871102273364</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9165206088033222</v>
+        <v>0.9183048545163642</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2697</v>
@@ -1610,19 +1610,19 @@
         <v>1999225</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1970235</v>
+        <v>1970491</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2021515</v>
+        <v>2023421</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.9225773777427122</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.9091995507354698</v>
+        <v>0.9093175939215543</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9328634588189524</v>
+        <v>0.933742756127354</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4523</v>
@@ -1631,19 +1631,19 @@
         <v>4007256</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3959868</v>
+        <v>3959821</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>4050195</v>
+        <v>4046937</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.9128194595241054</v>
+        <v>0.9128194595241055</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.9020247156387723</v>
+        <v>0.9020139733165564</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9226004721383203</v>
+        <v>0.9218584612092413</v>
       </c>
     </row>
     <row r="17">
@@ -1735,19 +1735,19 @@
         <v>19148</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>12420</v>
+        <v>12083</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>28631</v>
+        <v>29373</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.02698587584337251</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01750416129290959</v>
+        <v>0.01702959380390496</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.04035079049902038</v>
+        <v>0.04139685640578424</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>34</v>
@@ -1756,19 +1756,19 @@
         <v>22127</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>14974</v>
+        <v>15073</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>32920</v>
+        <v>32654</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.03013950255556248</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.02039571083456253</v>
+        <v>0.02053005019116066</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.04483995545450148</v>
+        <v>0.0444776869914983</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>55</v>
@@ -1777,19 +1777,19 @@
         <v>41275</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>30689</v>
+        <v>30380</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>54763</v>
+        <v>55159</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.0285895711645561</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.02125715509747651</v>
+        <v>0.02104278214138748</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.03793169963306959</v>
+        <v>0.03820624106425254</v>
       </c>
     </row>
     <row r="19">
@@ -1806,19 +1806,19 @@
         <v>13076</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>6985</v>
+        <v>7454</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>24144</v>
+        <v>26060</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01842788242131806</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.009843817693990094</v>
+        <v>0.01050465087713916</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03402742884835457</v>
+        <v>0.03672737938728696</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>6</v>
@@ -1827,19 +1827,19 @@
         <v>3763</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1451</v>
+        <v>1463</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>8023</v>
+        <v>8718</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.005124978540168882</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.001976115358532065</v>
+        <v>0.001993208457621575</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.01092747050506054</v>
+        <v>0.01187519302216879</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>18</v>
@@ -1848,19 +1848,19 @@
         <v>16838</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>9581</v>
+        <v>10164</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>27898</v>
+        <v>28228</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.01166303462563868</v>
+        <v>0.01166303462563869</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.006636328008992512</v>
+        <v>0.007040269764919158</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01932388500973635</v>
+        <v>0.0195520714851994</v>
       </c>
     </row>
     <row r="20">
@@ -1877,19 +1877,19 @@
         <v>11449</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>5317</v>
+        <v>5866</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>20546</v>
+        <v>22402</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.01613535843827639</v>
+        <v>0.01613535843827638</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.007493506705274341</v>
+        <v>0.008266527515951055</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02895675003429661</v>
+        <v>0.03157144897794215</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>12</v>
@@ -1898,19 +1898,19 @@
         <v>8254</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>4457</v>
+        <v>4016</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>14335</v>
+        <v>15030</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01124208215393584</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.006071130422856849</v>
+        <v>0.005470590528549472</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01952550546376733</v>
+        <v>0.02047159902701373</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>21</v>
@@ -1919,19 +1919,19 @@
         <v>19703</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>11728</v>
+        <v>12435</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>31264</v>
+        <v>29810</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.01364700930928066</v>
+        <v>0.01364700930928067</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.008123257791558966</v>
+        <v>0.008613246399626259</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02165490650633716</v>
+        <v>0.02064780220665797</v>
       </c>
     </row>
     <row r="21">
@@ -1951,16 +1951,16 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>16314</v>
+        <v>15056</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.004981014255307747</v>
+        <v>0.004981014255307746</v>
       </c>
       <c r="H21" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.02299191515354169</v>
+        <v>0.02121865714263113</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>3</v>
@@ -1969,19 +1969,19 @@
         <v>1981</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>5624</v>
+        <v>5250</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.002698141078744013</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.0006474673059891242</v>
+        <v>0.000638491826785808</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.007660893583969394</v>
+        <v>0.007150794016384503</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>5</v>
@@ -1990,19 +1990,19 @@
         <v>5515</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1745</v>
+        <v>1656</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>15052</v>
+        <v>16190</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.00382011812959969</v>
+        <v>0.003820118129599691</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.001208725006219829</v>
+        <v>0.001147072877561777</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.01042582636843639</v>
+        <v>0.01121378308824667</v>
       </c>
     </row>
     <row r="22">
@@ -2022,16 +2022,16 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>11845</v>
+        <v>14653</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.004089244959968062</v>
+        <v>0.004089244959968061</v>
       </c>
       <c r="H22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01669316661405114</v>
+        <v>0.02065051899130422</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>4</v>
@@ -2040,19 +2040,19 @@
         <v>6450</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1713</v>
+        <v>1702</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>15441</v>
+        <v>16204</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.008785703761049281</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.002332973191102046</v>
+        <v>0.002318505754815548</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0210322860172774</v>
+        <v>0.022070817312656</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>5</v>
@@ -2061,19 +2061,19 @@
         <v>9352</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3035</v>
+        <v>3456</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>21522</v>
+        <v>21626</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.006477507646960336</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.002102077275050488</v>
+        <v>0.002393870621169021</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01490714229070157</v>
+        <v>0.01497953342903349</v>
       </c>
     </row>
     <row r="23">
@@ -2090,19 +2090,19 @@
         <v>659447</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>644374</v>
+        <v>643008</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>674110</v>
+        <v>672811</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9293806240817573</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.908137594000067</v>
+        <v>0.9062124416884786</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9500467277875823</v>
+        <v>0.9482157869520765</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>944</v>
@@ -2111,19 +2111,19 @@
         <v>691593</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>675969</v>
+        <v>676554</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>702407</v>
+        <v>701994</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.9420095919105395</v>
+        <v>0.9420095919105396</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9207276901732397</v>
+        <v>0.9215247602702992</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9567394526739691</v>
+        <v>0.9561759112012613</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1578</v>
@@ -2132,19 +2132,19 @@
         <v>1351041</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1330313</v>
+        <v>1328567</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1369911</v>
+        <v>1369035</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.9358027591239645</v>
+        <v>0.9358027591239647</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9214457434126827</v>
+        <v>0.9202361246188636</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9488734975431583</v>
+        <v>0.9482662012775004</v>
       </c>
     </row>
     <row r="24">
@@ -2236,19 +2236,19 @@
         <v>119264</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>96270</v>
+        <v>98845</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>146113</v>
+        <v>148597</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.03396816568881452</v>
+        <v>0.03396816568881451</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02741907651068032</v>
+        <v>0.02815246529207541</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04161507023552456</v>
+        <v>0.04232256659522659</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>189</v>
@@ -2257,19 +2257,19 @@
         <v>125579</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>106405</v>
+        <v>105395</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>150617</v>
+        <v>146345</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.03374769495020117</v>
+        <v>0.03374769495020118</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02859484556006784</v>
+        <v>0.02832330575698734</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04047629905147938</v>
+        <v>0.0393282743702227</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>295</v>
@@ -2278,19 +2278,19 @@
         <v>244844</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>215208</v>
+        <v>215855</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>280250</v>
+        <v>282008</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03385472845431495</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02975691049813964</v>
+        <v>0.02984644325173312</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03875037095982466</v>
+        <v>0.03899342248527887</v>
       </c>
     </row>
     <row r="26">
@@ -2307,19 +2307,19 @@
         <v>59722</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>44732</v>
+        <v>44616</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>78040</v>
+        <v>80713</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01700955684062781</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.0127404196526058</v>
+        <v>0.01270735395933273</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02222690758963963</v>
+        <v>0.02298811985022411</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>52</v>
@@ -2328,19 +2328,19 @@
         <v>37660</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>28528</v>
+        <v>28558</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>50371</v>
+        <v>49939</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01012050668515844</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.00766640963423666</v>
+        <v>0.007674649327668977</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01353636482526661</v>
+        <v>0.01342039384739755</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>103</v>
@@ -2349,19 +2349,19 @@
         <v>97381</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>79025</v>
+        <v>79577</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>119580</v>
+        <v>120670</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.0134649830668912</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01092683314359696</v>
+        <v>0.01100314003612121</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01653440318853956</v>
+        <v>0.01668512681601639</v>
       </c>
     </row>
     <row r="27">
@@ -2378,19 +2378,19 @@
         <v>42606</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>27589</v>
+        <v>30227</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>62791</v>
+        <v>62691</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.01213482465153472</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.007857848615675067</v>
+        <v>0.008608988504661585</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.01788365775284538</v>
+        <v>0.01785542298494706</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>31</v>
@@ -2399,19 +2399,19 @@
         <v>25944</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>17581</v>
+        <v>17592</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>37624</v>
+        <v>39852</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>0.006971954904388969</v>
+        <v>0.00697195490438897</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.004724646052792517</v>
+        <v>0.004727575334174056</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.01011094857355473</v>
+        <v>0.01070970553284421</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>61</v>
@@ -2420,19 +2420,19 @@
         <v>68550</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>51613</v>
+        <v>51792</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>90785</v>
+        <v>88521</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.009478410154621517</v>
+        <v>0.00947841015462152</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.00713653609525545</v>
+        <v>0.007161276972368323</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.01255293467923841</v>
+        <v>0.01223984703190406</v>
       </c>
     </row>
     <row r="28">
@@ -2449,19 +2449,19 @@
         <v>44793</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>29143</v>
+        <v>29225</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>67881</v>
+        <v>66137</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01275781239196092</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.008300323086309796</v>
+        <v>0.008323781954610723</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01933354752837906</v>
+        <v>0.0188367654946762</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>24</v>
@@ -2470,19 +2470,19 @@
         <v>26285</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>16385</v>
+        <v>16093</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>40039</v>
+        <v>41636</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.007063609014948883</v>
+        <v>0.007063609014948884</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.004403246602498627</v>
+        <v>0.004324764113036074</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01075995598392554</v>
+        <v>0.01118909792470645</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>53</v>
@@ -2491,19 +2491,19 @@
         <v>71078</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>51113</v>
+        <v>53027</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>96024</v>
+        <v>98688</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.009828014597346934</v>
+        <v>0.009828014597346937</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.00706742309231969</v>
+        <v>0.007332057301301307</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01327733200541898</v>
+        <v>0.01364562838577437</v>
       </c>
     </row>
     <row r="29">
@@ -2520,19 +2520,19 @@
         <v>32294</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>17780</v>
+        <v>18172</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>54584</v>
+        <v>56237</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.009197909862385261</v>
+        <v>0.009197909862385259</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.005064104280020847</v>
+        <v>0.005175711722234615</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.01554625517477762</v>
+        <v>0.01601696151423822</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>17</v>
@@ -2541,19 +2541,19 @@
         <v>19723</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>10915</v>
+        <v>11098</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>34184</v>
+        <v>31685</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.005300268944807107</v>
+        <v>0.005300268944807108</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.002933370993434743</v>
+        <v>0.002982540072792571</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.009186517662818776</v>
+        <v>0.008514886924097666</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>32</v>
@@ -2562,19 +2562,19 @@
         <v>52017</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>34136</v>
+        <v>35052</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>77092</v>
+        <v>77083</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.007192484518671976</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.004720030518332787</v>
+        <v>0.004846637737927841</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.01065956171793604</v>
+        <v>0.01065837587374514</v>
       </c>
     </row>
     <row r="30">
@@ -2591,19 +2591,19 @@
         <v>3212381</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3167655</v>
+        <v>3167784</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>3250969</v>
+        <v>3251218</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.9149317305646769</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.9021930276518326</v>
+        <v>0.9022299651054522</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.9259220131722565</v>
+        <v>0.9259930879920072</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>5029</v>
@@ -2612,19 +2612,19 @@
         <v>3485935</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>3454321</v>
+        <v>3456746</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>3512512</v>
+        <v>3513904</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.9367959655004954</v>
+        <v>0.9367959655004955</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.9283000940201198</v>
+        <v>0.928951734801582</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.9439380728477021</v>
+        <v>0.9443123052137279</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>8153</v>
@@ -2633,19 +2633,19 @@
         <v>6698317</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>6647702</v>
+        <v>6643939</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>6748643</v>
+        <v>6742571</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.9261813792081532</v>
+        <v>0.9261813792081535</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.9191828474212261</v>
+        <v>0.9186625168346522</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.9331399650889033</v>
+        <v>0.9323004567475375</v>
       </c>
     </row>
     <row r="31">
